--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-11-sequence-and-unstacking-records.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-11-sequence-and-unstacking-records.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Advanced/Course Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Advanced Course Files\Instructor Files\Section 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{C3D4B366-814B-48F1-8C54-F1F540E9FD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{545CD15C-60DC-4A1E-9B34-ADCC13782539}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED8C8F1-4A66-4905-8693-796DF1C3ED62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6696" yWindow="912" windowWidth="14712" windowHeight="12180" activeTab="1" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
   </bookViews>
   <sheets>
     <sheet name="SEQUENCE" sheetId="1" r:id="rId1"/>
@@ -34,8 +34,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Training Course</t>
   </si>
@@ -143,6 +165,9 @@
   </si>
   <si>
     <t>Access</t>
+  </si>
+  <si>
+    <t>c4# select entire table</t>
   </si>
 </sst>
 </file>
@@ -150,8 +175,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -218,14 +243,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -238,11 +262,25 @@
   <dxfs count="1">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -257,6 +295,16 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5C2782BA-254D-49E1-81E9-DBE303049FB2}" name="Table1" displayName="Table1" ref="A3:A38" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A3:A38" xr:uid="{5C2782BA-254D-49E1-81E9-DBE303049FB2}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{1BD3DE97-1FEA-47F7-BD43-81D78D362CAB}" name="Training Course"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -514,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E86906-9D4F-417C-B01C-B523EEC5EA67}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D4" sqref="D4:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -530,126 +578,400 @@
     <col min="14" max="14" width="13.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>44603</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="3" cm="1">
+        <f t="array" ref="D4:D17">_xlfn.SEQUENCE(COUNTA(A4:A17),1,C4,7)</f>
+        <v>44603</v>
+      </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="3">
+        <v>44610</v>
+      </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="3">
+        <v>44617</v>
+      </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="3">
+        <v>44624</v>
+      </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="3">
+        <v>44631</v>
+      </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="3">
+        <v>44638</v>
+      </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="3">
+        <v>44645</v>
+      </c>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" cm="1">
+        <f t="array" ref="G10:N19">_xlfn.SEQUENCE(10,8,5,10)</f>
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>25</v>
+      </c>
+      <c r="J10">
+        <v>35</v>
+      </c>
+      <c r="K10">
+        <v>45</v>
+      </c>
+      <c r="L10">
+        <v>55</v>
+      </c>
+      <c r="M10">
+        <v>65</v>
+      </c>
+      <c r="N10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="3">
+        <v>44652</v>
+      </c>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>85</v>
+      </c>
+      <c r="H11">
+        <v>95</v>
+      </c>
+      <c r="I11">
+        <v>105</v>
+      </c>
+      <c r="J11">
+        <v>115</v>
+      </c>
+      <c r="K11">
+        <v>125</v>
+      </c>
+      <c r="L11">
+        <v>135</v>
+      </c>
+      <c r="M11">
+        <v>145</v>
+      </c>
+      <c r="N11">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="3">
+        <v>44659</v>
+      </c>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>165</v>
+      </c>
+      <c r="H12">
+        <v>175</v>
+      </c>
+      <c r="I12">
+        <v>185</v>
+      </c>
+      <c r="J12">
+        <v>195</v>
+      </c>
+      <c r="K12">
+        <v>205</v>
+      </c>
+      <c r="L12">
+        <v>215</v>
+      </c>
+      <c r="M12">
+        <v>225</v>
+      </c>
+      <c r="N12">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="3">
+        <v>44666</v>
+      </c>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>245</v>
+      </c>
+      <c r="H13">
+        <v>255</v>
+      </c>
+      <c r="I13">
+        <v>265</v>
+      </c>
+      <c r="J13">
+        <v>275</v>
+      </c>
+      <c r="K13">
+        <v>285</v>
+      </c>
+      <c r="L13">
+        <v>295</v>
+      </c>
+      <c r="M13">
+        <v>305</v>
+      </c>
+      <c r="N13">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="3">
+        <v>44673</v>
+      </c>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>325</v>
+      </c>
+      <c r="H14">
+        <v>335</v>
+      </c>
+      <c r="I14">
+        <v>345</v>
+      </c>
+      <c r="J14">
+        <v>355</v>
+      </c>
+      <c r="K14">
+        <v>365</v>
+      </c>
+      <c r="L14">
+        <v>375</v>
+      </c>
+      <c r="M14">
+        <v>385</v>
+      </c>
+      <c r="N14">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="3">
+        <v>44680</v>
+      </c>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>405</v>
+      </c>
+      <c r="H15">
+        <v>415</v>
+      </c>
+      <c r="I15">
+        <v>425</v>
+      </c>
+      <c r="J15">
+        <v>435</v>
+      </c>
+      <c r="K15">
+        <v>445</v>
+      </c>
+      <c r="L15">
+        <v>455</v>
+      </c>
+      <c r="M15">
+        <v>465</v>
+      </c>
+      <c r="N15">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="3">
+        <v>44687</v>
+      </c>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>485</v>
+      </c>
+      <c r="H16">
+        <v>495</v>
+      </c>
+      <c r="I16">
+        <v>505</v>
+      </c>
+      <c r="J16">
+        <v>515</v>
+      </c>
+      <c r="K16">
+        <v>525</v>
+      </c>
+      <c r="L16">
+        <v>535</v>
+      </c>
+      <c r="M16">
+        <v>545</v>
+      </c>
+      <c r="N16">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="3">
+        <v>44694</v>
+      </c>
       <c r="E17" s="2"/>
+      <c r="G17">
+        <v>565</v>
+      </c>
+      <c r="H17">
+        <v>575</v>
+      </c>
+      <c r="I17">
+        <v>585</v>
+      </c>
+      <c r="J17">
+        <v>595</v>
+      </c>
+      <c r="K17">
+        <v>605</v>
+      </c>
+      <c r="L17">
+        <v>615</v>
+      </c>
+      <c r="M17">
+        <v>625</v>
+      </c>
+      <c r="N17">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>645</v>
+      </c>
+      <c r="H18">
+        <v>655</v>
+      </c>
+      <c r="I18">
+        <v>665</v>
+      </c>
+      <c r="J18">
+        <v>675</v>
+      </c>
+      <c r="K18">
+        <v>685</v>
+      </c>
+      <c r="L18">
+        <v>695</v>
+      </c>
+      <c r="M18">
+        <v>705</v>
+      </c>
+      <c r="N18">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>725</v>
+      </c>
+      <c r="H19">
+        <v>735</v>
+      </c>
+      <c r="I19">
+        <v>745</v>
+      </c>
+      <c r="J19">
+        <v>755</v>
+      </c>
+      <c r="K19">
+        <v>765</v>
+      </c>
+      <c r="L19">
+        <v>775</v>
+      </c>
+      <c r="M19">
+        <v>785</v>
+      </c>
+      <c r="N19">
+        <v>795</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G22:G37">
@@ -662,43 +984,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860E1EC5-EE4F-4180-ADBD-E3B3CD611075}">
-  <dimension ref="A3:K42"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -706,41 +1035,235 @@
       <c r="A4" t="s">
         <v>19</v>
       </c>
+      <c r="C4" cm="1">
+        <f t="array" ref="C4:F11">_xlfn.SEQUENCE(COUNTA(Table1[Training Course])/4,4)</f>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="H4" t="str" cm="1">
+        <f t="array" ref="H4:K11">INDEX(Table1[Training Course],_xlfn.ANCHORARRAY(C4))</f>
+        <v>Excel</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Beginner</v>
+      </c>
+      <c r="J4" t="str">
+        <v>London</v>
+      </c>
+      <c r="K4" s="3">
+        <v>44595</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Excel</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Intermediate</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Oxford</v>
+      </c>
+      <c r="K5" s="3">
+        <v>44596</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Word</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Advanced</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Manchester</v>
+      </c>
+      <c r="K6" s="3">
+        <v>44597</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>44595</v>
       </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="H7" t="str">
+        <v>PowerPoint</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Beginner</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Liverpool</v>
+      </c>
+      <c r="K7" s="3">
+        <v>44598</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
+      <c r="C8">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Excel</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Advanced</v>
+      </c>
+      <c r="J8" t="str">
+        <v>London</v>
+      </c>
+      <c r="K8" s="3">
+        <v>44599</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
+      <c r="C9">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>23</v>
+      </c>
+      <c r="F9">
+        <v>24</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Outlook</v>
+      </c>
+      <c r="I9" t="str">
+        <v>All Levels</v>
+      </c>
+      <c r="J9" t="str">
+        <v>London</v>
+      </c>
+      <c r="K9" s="3">
+        <v>44600</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>27</v>
+      </c>
+      <c r="F10">
+        <v>28</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Project</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Beginner</v>
+      </c>
+      <c r="J10" t="str">
+        <v>London</v>
+      </c>
+      <c r="K10">
+        <v>44601</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>44596</v>
       </c>
+      <c r="C11">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>31</v>
+      </c>
+      <c r="F11">
+        <v>32</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Access</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Advanced</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Liverpool</v>
+      </c>
+      <c r="K11">
+        <v>44602</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -822,63 +1345,66 @@
         <v>44600</v>
       </c>
     </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>44601</v>
+      </c>
+    </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>44601</v>
+        <v>44602</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>44602</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>